--- a/Code/Results/Cases/Case_0_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02690065413055365</v>
+        <v>0.04380560484234053</v>
       </c>
       <c r="D2">
-        <v>0.01176127167295249</v>
+        <v>0.0368424112575596</v>
       </c>
       <c r="E2">
-        <v>0.03578346618113315</v>
+        <v>0.08203861909023047</v>
       </c>
       <c r="F2">
-        <v>2.073028765441819</v>
+        <v>3.034143507635491</v>
       </c>
       <c r="G2">
-        <v>0.0008127315341337172</v>
+        <v>0.002560527247941622</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.384745021802459</v>
+        <v>1.846202781391767</v>
       </c>
       <c r="J2">
-        <v>0.07026778412643253</v>
+        <v>0.1463079256554352</v>
       </c>
       <c r="K2">
-        <v>4.201990060417018</v>
+        <v>2.393862358430454</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8320032377220627</v>
+        <v>0.620270402485346</v>
       </c>
       <c r="N2">
-        <v>0.9719879348704588</v>
+        <v>2.061698343930409</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02679275266921621</v>
+        <v>0.04367336812962108</v>
       </c>
       <c r="D3">
-        <v>0.0106604948614244</v>
+        <v>0.03657573519980417</v>
       </c>
       <c r="E3">
-        <v>0.03408695816678886</v>
+        <v>0.0820351312019767</v>
       </c>
       <c r="F3">
-        <v>1.929513168721385</v>
+        <v>3.020767909071111</v>
       </c>
       <c r="G3">
-        <v>0.0008210335653051617</v>
+        <v>0.002565767827764623</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.27940678270393</v>
+        <v>1.833918239254288</v>
       </c>
       <c r="J3">
-        <v>0.06786281141296868</v>
+        <v>0.1466424809545543</v>
       </c>
       <c r="K3">
-        <v>3.64755177523142</v>
+        <v>2.259194455657337</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7276471538794453</v>
+        <v>0.5965247844002235</v>
       </c>
       <c r="N3">
-        <v>1.035009962712948</v>
+        <v>2.085840915183557</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02672630745077953</v>
+        <v>0.04359181736491635</v>
       </c>
       <c r="D4">
-        <v>0.009993006468425492</v>
+        <v>0.03641510557461736</v>
       </c>
       <c r="E4">
-        <v>0.03308838080658916</v>
+        <v>0.08206029996370923</v>
       </c>
       <c r="F4">
-        <v>1.846101996578994</v>
+        <v>3.014295659757281</v>
       </c>
       <c r="G4">
-        <v>0.000826268763388049</v>
+        <v>0.0025691545258309</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.217999322428426</v>
+        <v>1.827504882682007</v>
       </c>
       <c r="J4">
-        <v>0.06651542017255352</v>
+        <v>0.1469108138165609</v>
       </c>
       <c r="K4">
-        <v>3.31232520931286</v>
+        <v>2.177809740164605</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6646520381500594</v>
+        <v>0.5822841947959887</v>
       </c>
       <c r="N4">
-        <v>1.07538553159435</v>
+        <v>2.101392832557107</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0266992123982206</v>
+        <v>0.0435585008927184</v>
       </c>
       <c r="D5">
-        <v>0.009722738482434323</v>
+        <v>0.03635043728935194</v>
       </c>
       <c r="E5">
-        <v>0.03269163893807914</v>
+        <v>0.08207743417872848</v>
       </c>
       <c r="F5">
-        <v>1.813195723456147</v>
+        <v>3.012094564977659</v>
       </c>
       <c r="G5">
-        <v>0.0008284383147115164</v>
+        <v>0.002570577264358599</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.193725809828578</v>
+        <v>1.825174394589808</v>
       </c>
       <c r="J5">
-        <v>0.06599672984635774</v>
+        <v>0.1470359692080478</v>
       </c>
       <c r="K5">
-        <v>3.176853067972957</v>
+        <v>2.144971016823149</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6392199560842897</v>
+        <v>0.5765662018672089</v>
       </c>
       <c r="N5">
-        <v>1.092245284055171</v>
+        <v>2.107913233278406</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02669471313123495</v>
+        <v>0.04355296382685125</v>
       </c>
       <c r="D6">
-        <v>0.00967795568634422</v>
+        <v>0.03633974708390753</v>
       </c>
       <c r="E6">
-        <v>0.03262635751847576</v>
+        <v>0.08208069500902049</v>
       </c>
       <c r="F6">
-        <v>1.807794405903039</v>
+        <v>3.011755396281458</v>
       </c>
       <c r="G6">
-        <v>0.0008288007940789907</v>
+        <v>0.002570816088118921</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.189738549226817</v>
+        <v>1.824804482999241</v>
       </c>
       <c r="J6">
-        <v>0.06591237781303505</v>
+        <v>0.147057705540135</v>
       </c>
       <c r="K6">
-        <v>3.154421826484736</v>
+        <v>2.139537840751814</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6350105061565117</v>
+        <v>0.5756218726108742</v>
       </c>
       <c r="N6">
-        <v>1.095068934889252</v>
+        <v>2.109006978007613</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02672594206871892</v>
+        <v>0.04359136837954836</v>
       </c>
       <c r="D7">
-        <v>0.009989354958090502</v>
+        <v>0.03641423022802925</v>
       </c>
       <c r="E7">
-        <v>0.03308298978118351</v>
+        <v>0.08206050318001878</v>
       </c>
       <c r="F7">
-        <v>1.84565394568385</v>
+        <v>3.014264209723251</v>
       </c>
       <c r="G7">
-        <v>0.0008262978743772016</v>
+        <v>0.002569173540368493</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.217669013296941</v>
+        <v>1.827472308342692</v>
       </c>
       <c r="J7">
-        <v>0.06650830460062451</v>
+        <v>0.146912437718111</v>
       </c>
       <c r="K7">
-        <v>3.310493804959435</v>
+        <v>2.177365546378212</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.664308125926766</v>
+        <v>0.5822067353313187</v>
       </c>
       <c r="N7">
-        <v>1.075611282860915</v>
+        <v>2.101480028902763</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02686350735496035</v>
+        <v>0.04376008713638058</v>
       </c>
       <c r="D8">
-        <v>0.01137974364313621</v>
+        <v>0.03674982001905747</v>
       </c>
       <c r="E8">
-        <v>0.03518916116551551</v>
+        <v>0.08203175419178166</v>
       </c>
       <c r="F8">
-        <v>2.022504983540315</v>
+        <v>3.029169611190341</v>
       </c>
       <c r="G8">
-        <v>0.0008155664535331881</v>
+        <v>0.002562299219839076</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.347700389124199</v>
+        <v>1.841732055853399</v>
       </c>
       <c r="J8">
-        <v>0.06941038608837502</v>
+        <v>0.1464102143433372</v>
       </c>
       <c r="K8">
-        <v>4.009631850842595</v>
+        <v>2.347157890788822</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7957765990524734</v>
+        <v>0.6120123806218416</v>
       </c>
       <c r="N8">
-        <v>0.9933592240189952</v>
+        <v>2.06987139052676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02713053923083919</v>
+        <v>0.04408787541780868</v>
       </c>
       <c r="D9">
-        <v>0.01419237864273271</v>
+        <v>0.03743232008788056</v>
       </c>
       <c r="E9">
-        <v>0.03969353240370843</v>
+        <v>0.0821916953390982</v>
       </c>
       <c r="F9">
-        <v>2.4116254649837</v>
+        <v>3.072270686115402</v>
       </c>
       <c r="G9">
-        <v>0.0007955386706014478</v>
+        <v>0.002550152680334637</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.632231401753785</v>
+        <v>1.878705633400145</v>
       </c>
       <c r="J9">
-        <v>0.07623275284475284</v>
+        <v>0.1459252631536181</v>
       </c>
       <c r="K9">
-        <v>5.430551080058024</v>
+        <v>2.69052430987665</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.063789392315876</v>
+        <v>0.6731648271711634</v>
       </c>
       <c r="N9">
-        <v>0.8461867112153847</v>
+        <v>2.013676417020758</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02732369972640925</v>
+        <v>0.04432654282222259</v>
       </c>
       <c r="D10">
-        <v>0.01634333085654305</v>
+        <v>0.03794834967643723</v>
       </c>
       <c r="E10">
-        <v>0.04328127226639822</v>
+        <v>0.08244068356011702</v>
       </c>
       <c r="F10">
-        <v>2.731048037196302</v>
+        <v>3.112488384879299</v>
       </c>
       <c r="G10">
-        <v>0.0007813257539041696</v>
+        <v>0.002542032532882879</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.864884978189238</v>
+        <v>1.91143699492028</v>
       </c>
       <c r="J10">
-        <v>0.08209917066687211</v>
+        <v>0.1458748981876639</v>
       </c>
       <c r="K10">
-        <v>6.518471462015782</v>
+        <v>2.949271374237014</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.26947638707459</v>
+        <v>0.7197633882394285</v>
       </c>
       <c r="N10">
-        <v>0.7479062395622549</v>
+        <v>1.975932995520012</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0274107135989361</v>
+        <v>0.04443459300642516</v>
       </c>
       <c r="D11">
-        <v>0.01734896439764455</v>
+        <v>0.03818622444869746</v>
       </c>
       <c r="E11">
-        <v>0.0449866946055586</v>
+        <v>0.08258243258678988</v>
       </c>
       <c r="F11">
-        <v>2.885635882402539</v>
+        <v>3.132662625056412</v>
       </c>
       <c r="G11">
-        <v>0.0007749387276108842</v>
+        <v>0.002538511040375774</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.977293892844187</v>
+        <v>1.927552693280006</v>
       </c>
       <c r="J11">
-        <v>0.08499549502256087</v>
+        <v>0.1459186903556713</v>
       </c>
       <c r="K11">
-        <v>7.026431529750653</v>
+        <v>3.068419432689041</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.36561249705845</v>
+        <v>0.7413300245570298</v>
       </c>
       <c r="N11">
-        <v>0.7056552720828932</v>
+        <v>1.959534873602969</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02744353087770435</v>
+        <v>0.04447542885504063</v>
       </c>
       <c r="D12">
-        <v>0.01773455838644722</v>
+        <v>0.0382767465473961</v>
       </c>
       <c r="E12">
-        <v>0.0456442580979779</v>
+        <v>0.08264019767670305</v>
       </c>
       <c r="F12">
-        <v>2.945700683446375</v>
+        <v>3.140573901002853</v>
       </c>
       <c r="G12">
-        <v>0.0007725285536911627</v>
+        <v>0.002537202182115352</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.020944440740749</v>
+        <v>1.933832851737435</v>
       </c>
       <c r="J12">
-        <v>0.08612903165192165</v>
+        <v>0.1459448859064949</v>
       </c>
       <c r="K12">
-        <v>7.220995415093171</v>
+        <v>3.11374713089657</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.402449004163515</v>
+        <v>0.7495500818847347</v>
       </c>
       <c r="N12">
-        <v>0.6900407712832681</v>
+        <v>1.953436593648568</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02743646908632869</v>
+        <v>0.04446663778657722</v>
       </c>
       <c r="D13">
-        <v>0.01765128553516249</v>
+        <v>0.03825723133591552</v>
       </c>
       <c r="E13">
-        <v>0.0455020962342747</v>
+        <v>0.08262757524960485</v>
       </c>
       <c r="F13">
-        <v>2.932693479149322</v>
+        <v>3.138857956316343</v>
       </c>
       <c r="G13">
-        <v>0.000773047300813956</v>
+        <v>0.002537482973876667</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.011492911973519</v>
+        <v>1.932472394038086</v>
       </c>
       <c r="J13">
-        <v>0.08588319962184698</v>
+        <v>0.1459388163774733</v>
       </c>
       <c r="K13">
-        <v>7.178988521402516</v>
+        <v>3.103975684915326</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.394495311806267</v>
+        <v>0.7477773740032774</v>
       </c>
       <c r="N13">
-        <v>0.6933859586420041</v>
+        <v>1.954745009556969</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02741341619314497</v>
+        <v>0.04443795423896191</v>
       </c>
       <c r="D14">
-        <v>0.01738058603996961</v>
+        <v>0.03819366288966464</v>
       </c>
       <c r="E14">
-        <v>0.04504054964797177</v>
+        <v>0.08258710307464945</v>
       </c>
       <c r="F14">
-        <v>2.890545686220179</v>
+        <v>3.133308035783642</v>
       </c>
       <c r="G14">
-        <v>0.0007747402892152272</v>
+        <v>0.002538402866384045</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.980862471331008</v>
+        <v>1.928065801586271</v>
       </c>
       <c r="J14">
-        <v>0.08508799010949986</v>
+        <v>0.1459206527123698</v>
       </c>
       <c r="K14">
-        <v>7.042392055234188</v>
+        <v>3.072144374258471</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.368634016047011</v>
+        <v>0.7420052253196303</v>
       </c>
       <c r="N14">
-        <v>0.7043627444664367</v>
+        <v>1.959030930927945</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.027399278136091</v>
+        <v>0.04442037410446531</v>
       </c>
       <c r="D15">
-        <v>0.01721542617779903</v>
+        <v>0.03815478304031572</v>
       </c>
       <c r="E15">
-        <v>0.04475940864728933</v>
+        <v>0.08256284481911358</v>
       </c>
       <c r="F15">
-        <v>2.864933746330223</v>
+        <v>3.129943982181146</v>
       </c>
       <c r="G15">
-        <v>0.0007757783043091301</v>
+        <v>0.002538969533988578</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.9622459977098</v>
+        <v>1.925389786961418</v>
       </c>
       <c r="J15">
-        <v>0.08460581698327019</v>
+        <v>0.1459107793820422</v>
       </c>
       <c r="K15">
-        <v>6.959021257173674</v>
+        <v>3.052674028098295</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.352851461721869</v>
+        <v>0.7384765576906602</v>
       </c>
       <c r="N15">
-        <v>0.711137497323385</v>
+        <v>1.961670691928362</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02731799494214115</v>
+        <v>0.04431947053389962</v>
       </c>
       <c r="D16">
-        <v>0.01627822847799365</v>
+        <v>0.03793286646568816</v>
       </c>
       <c r="E16">
-        <v>0.0431713948703667</v>
+        <v>0.0824319923881891</v>
       </c>
       <c r="F16">
-        <v>2.721147892960147</v>
+        <v>3.111207891494473</v>
       </c>
       <c r="G16">
-        <v>0.0007817445065110509</v>
+        <v>0.002542266128383389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.857682497253151</v>
+        <v>1.910408568515606</v>
       </c>
       <c r="J16">
-        <v>0.08191480269383788</v>
+        <v>0.1458733802510324</v>
       </c>
       <c r="K16">
-        <v>6.485565312639608</v>
+        <v>2.941513922770241</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.263250508204635</v>
+        <v>0.7183613958920745</v>
       </c>
       <c r="N16">
-        <v>0.7507194983178209</v>
+        <v>1.977020209616693</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02726790200268425</v>
+        <v>0.04425743209608157</v>
       </c>
       <c r="D17">
-        <v>0.01571082263365753</v>
+        <v>0.03779752517658963</v>
       </c>
       <c r="E17">
-        <v>0.04221680025741925</v>
+        <v>0.08235900806318952</v>
       </c>
       <c r="F17">
-        <v>2.635445374616893</v>
+        <v>3.10019624634856</v>
       </c>
       <c r="G17">
-        <v>0.0007854227765319755</v>
+        <v>0.002544332540950637</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.795312812371321</v>
+        <v>1.901532935473242</v>
       </c>
       <c r="J17">
-        <v>0.08032496916573706</v>
+        <v>0.1458675358588835</v>
       </c>
       <c r="K17">
-        <v>6.1986835696855</v>
+        <v>2.873691333100965</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.208983006313304</v>
+        <v>0.7061159860058126</v>
       </c>
       <c r="N17">
-        <v>0.7756523817301115</v>
+        <v>1.986634525096392</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02723900954099889</v>
+        <v>0.04422170052750474</v>
       </c>
       <c r="D18">
-        <v>0.01538696123755301</v>
+        <v>0.03771997542854777</v>
       </c>
       <c r="E18">
-        <v>0.04167456527908975</v>
+        <v>0.08231971083136713</v>
       </c>
       <c r="F18">
-        <v>2.587012308796517</v>
+        <v>3.094039407415423</v>
       </c>
       <c r="G18">
-        <v>0.0007875459983223667</v>
+        <v>0.002545537322617922</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.760048882196443</v>
+        <v>1.896543234371208</v>
       </c>
       <c r="J18">
-        <v>0.07943169867704114</v>
+        <v>0.1458704514982685</v>
       </c>
       <c r="K18">
-        <v>6.034883729330545</v>
+        <v>2.834817279388972</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.178007303895825</v>
+        <v>0.6991074418642711</v>
       </c>
       <c r="N18">
-        <v>0.7902222828609879</v>
+        <v>1.992237023454383</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02722921366500231</v>
+        <v>0.04420959423834603</v>
       </c>
       <c r="D19">
-        <v>0.01527771151573631</v>
+        <v>0.03769376926962309</v>
       </c>
       <c r="E19">
-        <v>0.04149211109526796</v>
+        <v>0.08230686624911598</v>
       </c>
       <c r="F19">
-        <v>2.570756112673507</v>
+        <v>3.091985121394629</v>
       </c>
       <c r="G19">
-        <v>0.0007882662668846589</v>
+        <v>0.002545948033591805</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.748209866593896</v>
+        <v>1.894873579049488</v>
       </c>
       <c r="J19">
-        <v>0.07913277234093385</v>
+        <v>0.1458725161797005</v>
       </c>
       <c r="K19">
-        <v>5.97962177362632</v>
+        <v>2.821678456877692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.167558481618642</v>
+        <v>0.6967404210519561</v>
       </c>
       <c r="N19">
-        <v>0.7951938632310913</v>
+        <v>1.994146390373338</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02727324288830957</v>
+        <v>0.0442640412740154</v>
       </c>
       <c r="D20">
-        <v>0.01577095979092036</v>
+        <v>0.03781190200362872</v>
       </c>
       <c r="E20">
-        <v>0.04231770406927637</v>
+        <v>0.08236649991113865</v>
       </c>
       <c r="F20">
-        <v>2.644478162903198</v>
+        <v>3.101350148945926</v>
       </c>
       <c r="G20">
-        <v>0.0007850304536337658</v>
+        <v>0.002544110888574592</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.801888148842437</v>
+        <v>1.902465817159609</v>
       </c>
       <c r="J20">
-        <v>0.08049199216753067</v>
+        <v>0.1458675081936391</v>
       </c>
       <c r="K20">
-        <v>6.22909543474492</v>
+        <v>2.880897108121019</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.214734863444889</v>
+        <v>0.7074159387709926</v>
       </c>
       <c r="N20">
-        <v>0.7729742999174256</v>
+        <v>1.985603548385921</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02742019104037041</v>
+        <v>0.04444638151746716</v>
       </c>
       <c r="D21">
-        <v>0.01745995951170798</v>
+        <v>0.03821232247706163</v>
       </c>
       <c r="E21">
-        <v>0.04517578758617979</v>
+        <v>0.08259887985421699</v>
       </c>
       <c r="F21">
-        <v>2.902882456923749</v>
+        <v>3.134930795008387</v>
       </c>
       <c r="G21">
-        <v>0.0007742428125404599</v>
+        <v>0.002538132003726322</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.989828767025074</v>
+        <v>1.929355297914981</v>
       </c>
       <c r="J21">
-        <v>0.08532053007461116</v>
+        <v>0.1459257267764826</v>
       </c>
       <c r="K21">
-        <v>7.08245088838305</v>
+        <v>3.08148832011517</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.376217845687577</v>
+        <v>0.7436991985910311</v>
       </c>
       <c r="N21">
-        <v>0.7011278731031894</v>
+        <v>1.957769027272132</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02751545576305148</v>
+        <v>0.0445650802447517</v>
       </c>
       <c r="D22">
-        <v>0.01859221474120787</v>
+        <v>0.03847660630241734</v>
       </c>
       <c r="E22">
-        <v>0.04711291469465984</v>
+        <v>0.08277457693106882</v>
       </c>
       <c r="F22">
-        <v>3.080765602622535</v>
+        <v>3.158462261169205</v>
       </c>
       <c r="G22">
-        <v>0.000767240154783713</v>
+        <v>0.002534368099580357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.119053778321202</v>
+        <v>1.947964259548357</v>
       </c>
       <c r="J22">
-        <v>0.08869279031142696</v>
+        <v>0.1460198144308293</v>
       </c>
       <c r="K22">
-        <v>7.653239691842771</v>
+        <v>3.213804693207464</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.484308686193629</v>
+        <v>0.7677228392977042</v>
       </c>
       <c r="N22">
-        <v>0.6564342442735978</v>
+        <v>1.940226677092163</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02746468341399222</v>
+        <v>0.04450177339909089</v>
       </c>
       <c r="D23">
-        <v>0.01798498004576743</v>
+        <v>0.03833531835437043</v>
       </c>
       <c r="E23">
-        <v>0.04607226070438486</v>
+        <v>0.08267862683662131</v>
       </c>
       <c r="F23">
-        <v>2.984932428561365</v>
+        <v>3.145757574182653</v>
       </c>
       <c r="G23">
-        <v>0.0007709742754601663</v>
+        <v>0.002536363867734781</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.049448106094729</v>
+        <v>1.937937193935269</v>
       </c>
       <c r="J23">
-        <v>0.08687166963622417</v>
+        <v>0.1459644636074984</v>
       </c>
       <c r="K23">
-        <v>7.347281135923083</v>
+        <v>3.143072976923804</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.426362137837728</v>
+        <v>0.7548724906946518</v>
       </c>
       <c r="N23">
-        <v>0.6800694592275995</v>
+        <v>1.949529835633246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02727082856365826</v>
+        <v>0.04426105346720632</v>
       </c>
       <c r="D24">
-        <v>0.01574376453358539</v>
+        <v>0.03780540143024425</v>
       </c>
       <c r="E24">
-        <v>0.0422720650683619</v>
+        <v>0.08236310455321316</v>
       </c>
       <c r="F24">
-        <v>2.640391841846508</v>
+        <v>3.100827928029332</v>
       </c>
       <c r="G24">
-        <v>0.000785207796047192</v>
+        <v>0.00254421104540592</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.798913601665419</v>
+        <v>1.902043709411373</v>
       </c>
       <c r="J24">
-        <v>0.08041641674682154</v>
+        <v>0.1458675011555144</v>
       </c>
       <c r="K24">
-        <v>6.215342728258861</v>
+        <v>2.877639009622953</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.21213375759362</v>
+        <v>0.7068281320108269</v>
       </c>
       <c r="N24">
-        <v>0.7741843290356485</v>
+        <v>1.986069419065132</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02705874709132772</v>
+        <v>0.04399955882339768</v>
       </c>
       <c r="D25">
-        <v>0.01341925881466111</v>
+        <v>0.03724510309260509</v>
       </c>
       <c r="E25">
-        <v>0.03843005555493129</v>
+        <v>0.08212531033685444</v>
       </c>
       <c r="F25">
-        <v>2.301081501019041</v>
+        <v>3.059115934085753</v>
       </c>
       <c r="G25">
-        <v>0.0008008593465875108</v>
+        <v>0.002553296794728113</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.551555763666471</v>
+        <v>1.867731103773224</v>
       </c>
       <c r="J25">
-        <v>0.07425012425903432</v>
+        <v>0.1460028178355302</v>
       </c>
       <c r="K25">
-        <v>5.039505322151001</v>
+        <v>2.5965071629725</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9899456521209302</v>
+        <v>0.6563298199032204</v>
       </c>
       <c r="N25">
-        <v>0.8843699786357604</v>
+        <v>2.028257468925638</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04380560484234053</v>
+        <v>0.02690065413079878</v>
       </c>
       <c r="D2">
-        <v>0.0368424112575596</v>
+        <v>0.01176127167295959</v>
       </c>
       <c r="E2">
-        <v>0.08203861909023047</v>
+        <v>0.03578346618116157</v>
       </c>
       <c r="F2">
-        <v>3.034143507635491</v>
+        <v>2.073028765441819</v>
       </c>
       <c r="G2">
-        <v>0.002560527247941622</v>
+        <v>0.0008127315340866099</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.846202781391767</v>
+        <v>1.384745021802459</v>
       </c>
       <c r="J2">
-        <v>0.1463079256554352</v>
+        <v>0.07026778412656753</v>
       </c>
       <c r="K2">
-        <v>2.393862358430454</v>
+        <v>4.201990060417018</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.620270402485346</v>
+        <v>0.8320032377220556</v>
       </c>
       <c r="N2">
-        <v>2.061698343930409</v>
+        <v>0.9719879348705227</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04367336812962108</v>
+        <v>0.02679275266945425</v>
       </c>
       <c r="D3">
-        <v>0.03657573519980417</v>
+        <v>0.01066049486163223</v>
       </c>
       <c r="E3">
-        <v>0.0820351312019767</v>
+        <v>0.03408695816679241</v>
       </c>
       <c r="F3">
-        <v>3.020767909071111</v>
+        <v>1.929513168721385</v>
       </c>
       <c r="G3">
-        <v>0.002565767827764623</v>
+        <v>0.0008210335653052727</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.833918239254288</v>
+        <v>1.27940678270393</v>
       </c>
       <c r="J3">
-        <v>0.1466424809545543</v>
+        <v>0.06786281141298645</v>
       </c>
       <c r="K3">
-        <v>2.259194455657337</v>
+        <v>3.64755177523142</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5965247844002235</v>
+        <v>0.7276471538794453</v>
       </c>
       <c r="N3">
-        <v>2.085840915183557</v>
+        <v>1.035009962713026</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04359181736491635</v>
+        <v>0.02672630745095717</v>
       </c>
       <c r="D4">
-        <v>0.03641510557461736</v>
+        <v>0.009993006468542731</v>
       </c>
       <c r="E4">
-        <v>0.08206029996370923</v>
+        <v>0.03308838080659093</v>
       </c>
       <c r="F4">
-        <v>3.014295659757281</v>
+        <v>1.846101996578994</v>
       </c>
       <c r="G4">
-        <v>0.0025691545258309</v>
+        <v>0.0008262687634186699</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.827504882682007</v>
+        <v>1.217999322428412</v>
       </c>
       <c r="J4">
-        <v>0.1469108138165609</v>
+        <v>0.06651542017260326</v>
       </c>
       <c r="K4">
-        <v>2.177809740164605</v>
+        <v>3.312325209312917</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5822841947959887</v>
+        <v>0.6646520381500594</v>
       </c>
       <c r="N4">
-        <v>2.101392832557107</v>
+        <v>1.075385531594364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0435585008927184</v>
+        <v>0.02669921239805007</v>
       </c>
       <c r="D5">
-        <v>0.03635043728935194</v>
+        <v>0.009722738482466298</v>
       </c>
       <c r="E5">
-        <v>0.08207743417872848</v>
+        <v>0.03269163893807736</v>
       </c>
       <c r="F5">
-        <v>3.012094564977659</v>
+        <v>1.813195723456161</v>
       </c>
       <c r="G5">
-        <v>0.002570577264358599</v>
+        <v>0.0008284383147113065</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.825174394589808</v>
+        <v>1.193725809828564</v>
       </c>
       <c r="J5">
-        <v>0.1470359692080478</v>
+        <v>0.06599672984640037</v>
       </c>
       <c r="K5">
-        <v>2.144971016823149</v>
+        <v>3.176853067973013</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5765662018672089</v>
+        <v>0.6392199560842826</v>
       </c>
       <c r="N5">
-        <v>2.107913233278406</v>
+        <v>1.092245284055164</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04355296382685125</v>
+        <v>0.0266947131312314</v>
       </c>
       <c r="D6">
-        <v>0.03633974708390753</v>
+        <v>0.009677955686433037</v>
       </c>
       <c r="E6">
-        <v>0.08208069500902049</v>
+        <v>0.03262635751847753</v>
       </c>
       <c r="F6">
-        <v>3.011755396281458</v>
+        <v>1.807794405902996</v>
       </c>
       <c r="G6">
-        <v>0.002570816088118921</v>
+        <v>0.0008288007941649163</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.824804482999241</v>
+        <v>1.189738549226803</v>
       </c>
       <c r="J6">
-        <v>0.147057705540135</v>
+        <v>0.06591237781308479</v>
       </c>
       <c r="K6">
-        <v>2.139537840751814</v>
+        <v>3.154421826484793</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5756218726108742</v>
+        <v>0.6350105061565188</v>
       </c>
       <c r="N6">
-        <v>2.109006978007613</v>
+        <v>1.095068934889174</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04359136837954836</v>
+        <v>0.02672594206872958</v>
       </c>
       <c r="D7">
-        <v>0.03641423022802925</v>
+        <v>0.009989354958012342</v>
       </c>
       <c r="E7">
-        <v>0.08206050318001878</v>
+        <v>0.03308298978121016</v>
       </c>
       <c r="F7">
-        <v>3.014264209723251</v>
+        <v>1.84565394568385</v>
       </c>
       <c r="G7">
-        <v>0.002569173540368493</v>
+        <v>0.0008262978743779332</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.827472308342692</v>
+        <v>1.217669013296955</v>
       </c>
       <c r="J7">
-        <v>0.146912437718111</v>
+        <v>0.06650830460068846</v>
       </c>
       <c r="K7">
-        <v>2.177365546378212</v>
+        <v>3.310493804959435</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5822067353313187</v>
+        <v>0.664308125926766</v>
       </c>
       <c r="N7">
-        <v>2.101480028902763</v>
+        <v>1.075611282860869</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04376008713638058</v>
+        <v>0.02686350735537957</v>
       </c>
       <c r="D8">
-        <v>0.03674982001905747</v>
+        <v>0.01137974364289818</v>
       </c>
       <c r="E8">
-        <v>0.08203175419178166</v>
+        <v>0.03518916116551729</v>
       </c>
       <c r="F8">
-        <v>3.029169611190341</v>
+        <v>2.02250498354033</v>
       </c>
       <c r="G8">
-        <v>0.002562299219839076</v>
+        <v>0.0008155664534382894</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.841732055853399</v>
+        <v>1.347700389124213</v>
       </c>
       <c r="J8">
-        <v>0.1464102143433372</v>
+        <v>0.06941038608835726</v>
       </c>
       <c r="K8">
-        <v>2.347157890788822</v>
+        <v>4.009631850842595</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6120123806218416</v>
+        <v>0.7957765990524948</v>
       </c>
       <c r="N8">
-        <v>2.06987139052676</v>
+        <v>0.993359224018981</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04408787541780868</v>
+        <v>0.02713053923083564</v>
       </c>
       <c r="D9">
-        <v>0.03743232008788056</v>
+        <v>0.01419237864272915</v>
       </c>
       <c r="E9">
-        <v>0.0821916953390982</v>
+        <v>0.03969353240370666</v>
       </c>
       <c r="F9">
-        <v>3.072270686115402</v>
+        <v>2.411625464983686</v>
       </c>
       <c r="G9">
-        <v>0.002550152680334637</v>
+        <v>0.0007955386706581697</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.878705633400145</v>
+        <v>1.632231401753799</v>
       </c>
       <c r="J9">
-        <v>0.1459252631536181</v>
+        <v>0.07623275284472442</v>
       </c>
       <c r="K9">
-        <v>2.69052430987665</v>
+        <v>5.430551080057967</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6731648271711634</v>
+        <v>1.063789392315869</v>
       </c>
       <c r="N9">
-        <v>2.013676417020758</v>
+        <v>0.8461867112153101</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04432654282222259</v>
+        <v>0.02732369972640925</v>
       </c>
       <c r="D10">
-        <v>0.03794834967643723</v>
+        <v>0.0163433308565466</v>
       </c>
       <c r="E10">
-        <v>0.08244068356011702</v>
+        <v>0.04328127226639644</v>
       </c>
       <c r="F10">
-        <v>3.112488384879299</v>
+        <v>2.731048037196302</v>
       </c>
       <c r="G10">
-        <v>0.002542032532882879</v>
+        <v>0.0007813257539036611</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.91143699492028</v>
+        <v>1.864884978189238</v>
       </c>
       <c r="J10">
-        <v>0.1458748981876639</v>
+        <v>0.08209917066687922</v>
       </c>
       <c r="K10">
-        <v>2.949271374237014</v>
+        <v>6.518471462015839</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7197633882394285</v>
+        <v>1.269476387074576</v>
       </c>
       <c r="N10">
-        <v>1.975932995520012</v>
+        <v>0.747906239562262</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04443459300642516</v>
+        <v>0.02741071359870517</v>
       </c>
       <c r="D11">
-        <v>0.03818622444869746</v>
+        <v>0.01734896439786837</v>
       </c>
       <c r="E11">
-        <v>0.08258243258678988</v>
+        <v>0.04498669460555682</v>
       </c>
       <c r="F11">
-        <v>3.132662625056412</v>
+        <v>2.885635882402482</v>
       </c>
       <c r="G11">
-        <v>0.002538511040375774</v>
+        <v>0.0007749387276097927</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.927552693280006</v>
+        <v>1.977293892844202</v>
       </c>
       <c r="J11">
-        <v>0.1459186903556713</v>
+        <v>0.08499549502255377</v>
       </c>
       <c r="K11">
-        <v>3.068419432689041</v>
+        <v>7.026431529750596</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7413300245570298</v>
+        <v>1.36561249705845</v>
       </c>
       <c r="N11">
-        <v>1.959534873602969</v>
+        <v>0.7056552720829501</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04447542885504063</v>
+        <v>0.02744353087767948</v>
       </c>
       <c r="D12">
-        <v>0.0382767465473961</v>
+        <v>0.01773455838642235</v>
       </c>
       <c r="E12">
-        <v>0.08264019767670305</v>
+        <v>0.04564425809799566</v>
       </c>
       <c r="F12">
-        <v>3.140573901002853</v>
+        <v>2.945700683446404</v>
       </c>
       <c r="G12">
-        <v>0.002537202182115352</v>
+        <v>0.0007725285535686023</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.933832851737435</v>
+        <v>2.020944440740763</v>
       </c>
       <c r="J12">
-        <v>0.1459448859064949</v>
+        <v>0.0861290316519856</v>
       </c>
       <c r="K12">
-        <v>3.11374713089657</v>
+        <v>7.220995415093398</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7495500818847347</v>
+        <v>1.402449004163543</v>
       </c>
       <c r="N12">
-        <v>1.953436593648568</v>
+        <v>0.690040771283293</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04446663778657722</v>
+        <v>0.02743646908655606</v>
       </c>
       <c r="D13">
-        <v>0.03825723133591552</v>
+        <v>0.01765128553516959</v>
       </c>
       <c r="E13">
-        <v>0.08262757524960485</v>
+        <v>0.04550209623424806</v>
       </c>
       <c r="F13">
-        <v>3.138857956316343</v>
+        <v>2.932693479149322</v>
       </c>
       <c r="G13">
-        <v>0.002537482973876667</v>
+        <v>0.0007730473006991999</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.932472394038086</v>
+        <v>2.011492911973505</v>
       </c>
       <c r="J13">
-        <v>0.1459388163774733</v>
+        <v>0.08588319962185409</v>
       </c>
       <c r="K13">
-        <v>3.103975684915326</v>
+        <v>7.178988521402516</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7477773740032774</v>
+        <v>1.394495311806295</v>
       </c>
       <c r="N13">
-        <v>1.954745009556969</v>
+        <v>0.6933859586420148</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04443795423896191</v>
+        <v>0.02741341619314497</v>
       </c>
       <c r="D14">
-        <v>0.03819366288966464</v>
+        <v>0.01738058603996961</v>
       </c>
       <c r="E14">
-        <v>0.08258710307464945</v>
+        <v>0.04504054964797177</v>
       </c>
       <c r="F14">
-        <v>3.133308035783642</v>
+        <v>2.890545686220179</v>
       </c>
       <c r="G14">
-        <v>0.002538402866384045</v>
+        <v>0.0007747402892152272</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.928065801586271</v>
+        <v>1.980862471331008</v>
       </c>
       <c r="J14">
-        <v>0.1459206527123698</v>
+        <v>0.0850879901095567</v>
       </c>
       <c r="K14">
-        <v>3.072144374258471</v>
+        <v>7.042392055234188</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7420052253196303</v>
+        <v>1.368634016047025</v>
       </c>
       <c r="N14">
-        <v>1.959030930927945</v>
+        <v>0.7043627444664331</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04442037410446531</v>
+        <v>0.02739927813631837</v>
       </c>
       <c r="D15">
-        <v>0.03815478304031572</v>
+        <v>0.01721542617767824</v>
       </c>
       <c r="E15">
-        <v>0.08256284481911358</v>
+        <v>0.04475940864726091</v>
       </c>
       <c r="F15">
-        <v>3.129943982181146</v>
+        <v>2.864933746330195</v>
       </c>
       <c r="G15">
-        <v>0.002538969533988578</v>
+        <v>0.0007757783043682799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.925389786961418</v>
+        <v>1.962245997709815</v>
       </c>
       <c r="J15">
-        <v>0.1459107793820422</v>
+        <v>0.08460581698322045</v>
       </c>
       <c r="K15">
-        <v>3.052674028098295</v>
+        <v>6.959021257173674</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7384765576906602</v>
+        <v>1.352851461721869</v>
       </c>
       <c r="N15">
-        <v>1.961670691928362</v>
+        <v>0.7111374973234028</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04431947053389962</v>
+        <v>0.02731799494214471</v>
       </c>
       <c r="D16">
-        <v>0.03793286646568816</v>
+        <v>0.01627822847776628</v>
       </c>
       <c r="E16">
-        <v>0.0824319923881891</v>
+        <v>0.04317139487027788</v>
       </c>
       <c r="F16">
-        <v>3.111207891494473</v>
+        <v>2.721147892960147</v>
       </c>
       <c r="G16">
-        <v>0.002542266128383389</v>
+        <v>0.0007817445065125648</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.910408568515606</v>
+        <v>1.857682497253137</v>
       </c>
       <c r="J16">
-        <v>0.1458733802510324</v>
+        <v>0.08191480269397999</v>
       </c>
       <c r="K16">
-        <v>2.941513922770241</v>
+        <v>6.485565312639721</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7183613958920745</v>
+        <v>1.263250508204621</v>
       </c>
       <c r="N16">
-        <v>1.977020209616693</v>
+        <v>0.7507194983177676</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04425743209608157</v>
+        <v>0.02726790200246043</v>
       </c>
       <c r="D17">
-        <v>0.03779752517658963</v>
+        <v>0.01571082263355095</v>
       </c>
       <c r="E17">
-        <v>0.08235900806318952</v>
+        <v>0.04221680025744945</v>
       </c>
       <c r="F17">
-        <v>3.10019624634856</v>
+        <v>2.635445374616893</v>
       </c>
       <c r="G17">
-        <v>0.002544332540950637</v>
+        <v>0.0007854227765898789</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.901532935473242</v>
+        <v>1.795312812371307</v>
       </c>
       <c r="J17">
-        <v>0.1458675358588835</v>
+        <v>0.08032496916568732</v>
       </c>
       <c r="K17">
-        <v>2.873691333100965</v>
+        <v>6.198683569685556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7061159860058126</v>
+        <v>1.208983006313304</v>
       </c>
       <c r="N17">
-        <v>1.986634525096392</v>
+        <v>0.7756523817301257</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04422170052750474</v>
+        <v>0.02723900954099889</v>
       </c>
       <c r="D18">
-        <v>0.03771997542854777</v>
+        <v>0.01538696123767735</v>
       </c>
       <c r="E18">
-        <v>0.08231971083136713</v>
+        <v>0.04167456527912172</v>
       </c>
       <c r="F18">
-        <v>3.094039407415423</v>
+        <v>2.587012308796531</v>
       </c>
       <c r="G18">
-        <v>0.002545537322617922</v>
+        <v>0.0007875459982086275</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.896543234371208</v>
+        <v>1.760048882196429</v>
       </c>
       <c r="J18">
-        <v>0.1458704514982685</v>
+        <v>0.07943169867704825</v>
       </c>
       <c r="K18">
-        <v>2.834817279388972</v>
+        <v>6.034883729330659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6991074418642711</v>
+        <v>1.178007303895868</v>
       </c>
       <c r="N18">
-        <v>1.992237023454383</v>
+        <v>0.7902222828609382</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04420959423834603</v>
+        <v>0.02722921366500231</v>
       </c>
       <c r="D19">
-        <v>0.03769376926962309</v>
+        <v>0.01527771151573276</v>
       </c>
       <c r="E19">
-        <v>0.08230686624911598</v>
+        <v>0.04149211109526618</v>
       </c>
       <c r="F19">
-        <v>3.091985121394629</v>
+        <v>2.570756112673507</v>
       </c>
       <c r="G19">
-        <v>0.002545948033591805</v>
+        <v>0.0007882662669391992</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.894873579049488</v>
+        <v>1.748209866593882</v>
       </c>
       <c r="J19">
-        <v>0.1458725161797005</v>
+        <v>0.0791327723409978</v>
       </c>
       <c r="K19">
-        <v>2.821678456877692</v>
+        <v>5.979621773626377</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6967404210519561</v>
+        <v>1.167558481618656</v>
       </c>
       <c r="N19">
-        <v>1.994146390373338</v>
+        <v>0.7951938632310203</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0442640412740154</v>
+        <v>0.02727324288853694</v>
       </c>
       <c r="D20">
-        <v>0.03781190200362872</v>
+        <v>0.01577095979091681</v>
       </c>
       <c r="E20">
-        <v>0.08236649991113865</v>
+        <v>0.04231770406927815</v>
       </c>
       <c r="F20">
-        <v>3.101350148945926</v>
+        <v>2.644478162903198</v>
       </c>
       <c r="G20">
-        <v>0.002544110888574592</v>
+        <v>0.0007850304535769203</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.902465817159609</v>
+        <v>1.801888148842409</v>
       </c>
       <c r="J20">
-        <v>0.1458675081936391</v>
+        <v>0.08049199216753067</v>
       </c>
       <c r="K20">
-        <v>2.880897108121019</v>
+        <v>6.22909543474475</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7074159387709926</v>
+        <v>1.214734863444889</v>
       </c>
       <c r="N20">
-        <v>1.985603548385921</v>
+        <v>0.7729742999174256</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04444638151746716</v>
+        <v>0.02742019104038107</v>
       </c>
       <c r="D21">
-        <v>0.03821232247706163</v>
+        <v>0.01745995951183943</v>
       </c>
       <c r="E21">
-        <v>0.08259887985421699</v>
+        <v>0.04517578758619223</v>
       </c>
       <c r="F21">
-        <v>3.134930795008387</v>
+        <v>2.902882456923692</v>
       </c>
       <c r="G21">
-        <v>0.002538132003726322</v>
+        <v>0.000774242812424755</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.929355297914981</v>
+        <v>1.98982876702506</v>
       </c>
       <c r="J21">
-        <v>0.1459257267764826</v>
+        <v>0.08532053007464668</v>
       </c>
       <c r="K21">
-        <v>3.08148832011517</v>
+        <v>7.082450888382994</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7436991985910311</v>
+        <v>1.376217845687549</v>
       </c>
       <c r="N21">
-        <v>1.957769027272132</v>
+        <v>0.7011278731032107</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0445650802447517</v>
+        <v>0.02751545576304437</v>
       </c>
       <c r="D22">
-        <v>0.03847660630241734</v>
+        <v>0.01859221474109063</v>
       </c>
       <c r="E22">
-        <v>0.08277457693106882</v>
+        <v>0.04711291469465806</v>
       </c>
       <c r="F22">
-        <v>3.158462261169205</v>
+        <v>3.080765602622506</v>
       </c>
       <c r="G22">
-        <v>0.002534368099580357</v>
+        <v>0.0007672401547833799</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.947964259548357</v>
+        <v>2.119053778321216</v>
       </c>
       <c r="J22">
-        <v>0.1460198144308293</v>
+        <v>0.08869279031143407</v>
       </c>
       <c r="K22">
-        <v>3.213804693207464</v>
+        <v>7.653239691842657</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7677228392977042</v>
+        <v>1.484308686193614</v>
       </c>
       <c r="N22">
-        <v>1.940226677092163</v>
+        <v>0.6564342442736475</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04450177339909089</v>
+        <v>0.02746468341377195</v>
       </c>
       <c r="D23">
-        <v>0.03833531835437043</v>
+        <v>0.01798498004577809</v>
       </c>
       <c r="E23">
-        <v>0.08267862683662131</v>
+        <v>0.04607226070441683</v>
       </c>
       <c r="F23">
-        <v>3.145757574182653</v>
+        <v>2.984932428561365</v>
       </c>
       <c r="G23">
-        <v>0.002536363867734781</v>
+        <v>0.0007709742755746948</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.937937193935269</v>
+        <v>2.049448106094715</v>
       </c>
       <c r="J23">
-        <v>0.1459644636074984</v>
+        <v>0.08687166963618864</v>
       </c>
       <c r="K23">
-        <v>3.143072976923804</v>
+        <v>7.34728113592314</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7548724906946518</v>
+        <v>1.426362137837728</v>
       </c>
       <c r="N23">
-        <v>1.949529835633246</v>
+        <v>0.6800694592276102</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04426105346720632</v>
+        <v>0.02727082856387852</v>
       </c>
       <c r="D24">
-        <v>0.03780540143024425</v>
+        <v>0.01574376453358184</v>
       </c>
       <c r="E24">
-        <v>0.08236310455321316</v>
+        <v>0.04227206506836012</v>
       </c>
       <c r="F24">
-        <v>3.100827928029332</v>
+        <v>2.640391841846508</v>
       </c>
       <c r="G24">
-        <v>0.00254421104540592</v>
+        <v>0.0007852077960467835</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.902043709411373</v>
+        <v>1.798913601665419</v>
       </c>
       <c r="J24">
-        <v>0.1458675011555144</v>
+        <v>0.08041641674668654</v>
       </c>
       <c r="K24">
-        <v>2.877639009622953</v>
+        <v>6.215342728258747</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7068281320108269</v>
+        <v>1.21213375759362</v>
       </c>
       <c r="N24">
-        <v>1.986069419065132</v>
+        <v>0.7741843290357053</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04399955882339768</v>
+        <v>0.02705874709173983</v>
       </c>
       <c r="D25">
-        <v>0.03724510309260509</v>
+        <v>0.01341925881487072</v>
       </c>
       <c r="E25">
-        <v>0.08212531033685444</v>
+        <v>0.03843005555495793</v>
       </c>
       <c r="F25">
-        <v>3.059115934085753</v>
+        <v>2.301081501019027</v>
       </c>
       <c r="G25">
-        <v>0.002553296794728113</v>
+        <v>0.0008008593465869485</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.867731103773224</v>
+        <v>1.551555763666471</v>
       </c>
       <c r="J25">
-        <v>0.1460028178355302</v>
+        <v>0.07425012425901301</v>
       </c>
       <c r="K25">
-        <v>2.5965071629725</v>
+        <v>5.039505322151001</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6563298199032204</v>
+        <v>0.989945652120916</v>
       </c>
       <c r="N25">
-        <v>2.028257468925638</v>
+        <v>0.8843699786357533</v>
       </c>
       <c r="O25">
         <v>0</v>
